--- a/MeaslesByProvinceMonth-china.xlsx
+++ b/MeaslesByProvinceMonth-china.xlsx
@@ -3,19 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA59082-D1B6-42C4-AF07-EA58235070C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AFD143-BD27-4B62-B245-2C9DE3A0EE7B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measles-china" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Measles-china'!$A$1:$F$4832</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9668" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9668" uniqueCount="195">
   <si>
     <t>地 区</t>
   </si>
@@ -594,9 +597,6 @@
   </si>
   <si>
     <t>2010-12</t>
-  </si>
-  <si>
-    <t>新    疆</t>
   </si>
   <si>
     <t>宁夏</t>
@@ -1557,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A892" workbookViewId="0">
-      <selection activeCell="H904" sqref="H904"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1580,7 +1580,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1761,7 +1761,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B59">
         <v>7</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B93">
         <v>24</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B160">
         <v>26</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B186">
         <v>3</v>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B265">
         <v>652</v>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B311">
         <v>13</v>
@@ -7298,7 +7298,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B334">
         <v>22</v>
@@ -7471,7 +7471,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B344">
         <v>17</v>
@@ -8367,7 +8367,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B396">
         <v>15</v>
@@ -10083,7 +10083,7 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A495" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B495">
         <v>2</v>
@@ -10253,7 +10253,7 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A505" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B505">
         <v>4</v>
@@ -11339,7 +11339,7 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A568" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B568">
         <v>9</v>
@@ -12315,7 +12315,7 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A624" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B624">
         <v>19</v>
@@ -12746,7 +12746,7 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A649" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B649">
         <v>9</v>
@@ -14016,7 +14016,7 @@
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A723" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B723">
         <v>28</v>
@@ -15140,7 +15140,7 @@
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A787" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B787">
         <v>1</v>
@@ -15840,7 +15840,7 @@
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A828" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B828">
         <v>1</v>
@@ -15874,7 +15874,7 @@
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A830" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B830">
         <v>3</v>
@@ -16081,7 +16081,7 @@
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A842" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B842">
         <v>4</v>
@@ -16671,7 +16671,7 @@
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A876" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B876">
         <v>12</v>
@@ -18333,7 +18333,7 @@
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A972" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B972">
         <v>7</v>
@@ -18639,7 +18639,7 @@
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A990" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B990">
         <v>7</v>
@@ -18727,7 +18727,7 @@
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A995" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B995">
         <v>106</v>
@@ -20213,7 +20213,7 @@
     </row>
     <row r="1081" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1081" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1081">
         <v>60</v>
@@ -21064,7 +21064,7 @@
     </row>
     <row r="1130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1130" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1130">
         <v>4</v>
@@ -21081,7 +21081,7 @@
     </row>
     <row r="1131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1131" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1131">
         <v>277</v>
@@ -21745,7 +21745,7 @@
     </row>
     <row r="1169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1169" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1169">
         <v>252</v>
@@ -22264,7 +22264,7 @@
     </row>
     <row r="1199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1199" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1199">
         <v>26</v>
@@ -23046,7 +23046,7 @@
     </row>
     <row r="1245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1245" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1245">
         <v>206</v>
@@ -23372,7 +23372,7 @@
     </row>
     <row r="1264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1264" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1264">
         <v>2</v>
@@ -24458,7 +24458,7 @@
     </row>
     <row r="1327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1327" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1327">
         <v>6</v>
@@ -24818,7 +24818,7 @@
     </row>
     <row r="1348" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1348" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1348">
         <v>1</v>
@@ -25184,7 +25184,7 @@
     </row>
     <row r="1369" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1369" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B1369">
         <v>9</v>
@@ -25734,7 +25734,7 @@
     </row>
     <row r="1401" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1401" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1401">
         <v>27</v>
@@ -25992,7 +25992,7 @@
     </row>
     <row r="1416" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1416" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1416">
         <v>7</v>
@@ -27929,7 +27929,7 @@
     </row>
     <row r="1528" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1528" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1528">
         <v>2</v>
@@ -28227,7 +28227,7 @@
     </row>
     <row r="1545" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1545" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1545">
         <v>3</v>
@@ -28383,7 +28383,7 @@
     </row>
     <row r="1554" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1554" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1554">
         <v>1</v>
@@ -30427,7 +30427,7 @@
     </row>
     <row r="1673" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1673" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1673">
         <v>9</v>
@@ -30566,7 +30566,7 @@
     </row>
     <row r="1681" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1681" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B1681">
         <v>16</v>
@@ -31352,7 +31352,7 @@
     </row>
     <row r="1726" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1726" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1726">
         <v>2</v>
@@ -32271,7 +32271,7 @@
     </row>
     <row r="1779" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1779" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B1779">
         <v>11</v>
@@ -32685,7 +32685,7 @@
     </row>
     <row r="1803" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1803" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B1803">
         <v>5</v>
@@ -33819,7 +33819,7 @@
     </row>
     <row r="1869" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1869" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1869">
         <v>1</v>
@@ -33955,7 +33955,7 @@
     </row>
     <row r="1877" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1877" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1877">
         <v>2</v>
@@ -34545,7 +34545,7 @@
     </row>
     <row r="1911" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1911" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1911">
         <v>4</v>
@@ -34792,7 +34792,7 @@
     </row>
     <row r="1925" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1925" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B1925">
         <v>23</v>
@@ -34843,7 +34843,7 @@
     </row>
     <row r="1928" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1928" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1928">
         <v>37</v>
@@ -34928,7 +34928,7 @@
     </row>
     <row r="1933" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1933" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1933">
         <v>110</v>
@@ -35345,7 +35345,7 @@
     </row>
     <row r="1957" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1957" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1957">
         <v>2</v>
@@ -35756,7 +35756,7 @@
     </row>
     <row r="1981" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1981" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1981">
         <v>1</v>
@@ -37029,7 +37029,7 @@
     </row>
     <row r="2055" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2055" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2055">
         <v>2</v>
@@ -37256,7 +37256,7 @@
     </row>
     <row r="2068" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2068" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2068">
         <v>1</v>
@@ -37426,7 +37426,7 @@
     </row>
     <row r="2078" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2078" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2078">
         <v>2</v>
@@ -37817,7 +37817,7 @@
     </row>
     <row r="2101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2101" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B2101">
         <v>13</v>
@@ -37990,7 +37990,7 @@
     </row>
     <row r="2111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2111" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B2111">
         <v>53</v>
@@ -38529,7 +38529,7 @@
     </row>
     <row r="2142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2142" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2142">
         <v>147</v>
@@ -41506,7 +41506,7 @@
     </row>
     <row r="2315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2315" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2315">
         <v>2</v>
@@ -41540,7 +41540,7 @@
     </row>
     <row r="2317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2317" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2317">
         <v>2</v>
@@ -42419,7 +42419,7 @@
     </row>
     <row r="2368" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2368" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B2368">
         <v>34</v>
@@ -42456,7 +42456,7 @@
     </row>
     <row r="2370" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2370" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B2370">
         <v>15</v>
@@ -44036,7 +44036,7 @@
     </row>
     <row r="2461" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2461" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2461">
         <v>4</v>
@@ -44652,7 +44652,7 @@
     </row>
     <row r="2496" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2496" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2496">
         <v>17</v>
@@ -44703,7 +44703,7 @@
     </row>
     <row r="2499" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2499" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B2499">
         <v>5</v>
@@ -44961,7 +44961,7 @@
     </row>
     <row r="2514" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2514" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2514">
         <v>10</v>
@@ -46303,7 +46303,7 @@
     </row>
     <row r="2591" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2591" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2591">
         <v>19</v>
@@ -46473,7 +46473,7 @@
     </row>
     <row r="2601" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2601" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2601">
         <v>33</v>
@@ -47395,7 +47395,7 @@
     </row>
     <row r="2654" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2654" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2654">
         <v>4</v>
@@ -47446,7 +47446,7 @@
     </row>
     <row r="2657" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2657" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B2657">
         <v>22</v>
@@ -48530,7 +48530,7 @@
     </row>
     <row r="2719" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2719" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2719">
         <v>192</v>
@@ -48649,7 +48649,7 @@
     </row>
     <row r="2726" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2726" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2726">
         <v>107</v>
@@ -48819,7 +48819,7 @@
     </row>
     <row r="2736" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2736" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2736">
         <v>3</v>
@@ -49520,7 +49520,7 @@
     </row>
     <row r="2776" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2776" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2776">
         <v>47</v>
@@ -50059,7 +50059,7 @@
     </row>
     <row r="2807" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2807" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2807">
         <v>2</v>
@@ -50422,7 +50422,7 @@
     </row>
     <row r="2828" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2828" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2828">
         <v>1</v>
@@ -50646,7 +50646,7 @@
     </row>
     <row r="2841" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2841" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B2841">
         <v>56</v>
@@ -50748,7 +50748,7 @@
     </row>
     <row r="2847" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2847" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B2847">
         <v>51</v>
@@ -50782,7 +50782,7 @@
     </row>
     <row r="2849" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2849" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2849">
         <v>1</v>
@@ -50884,7 +50884,7 @@
     </row>
     <row r="2855" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2855" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2855">
         <v>41</v>
@@ -51080,7 +51080,7 @@
     </row>
     <row r="2866" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2866" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2866">
         <v>5</v>
@@ -51338,7 +51338,7 @@
     </row>
     <row r="2881" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2881" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2881">
         <v>3</v>
@@ -51814,7 +51814,7 @@
     </row>
     <row r="2909" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2909" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2909">
         <v>1</v>
@@ -52585,7 +52585,7 @@
     </row>
     <row r="2954" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2954" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2954">
         <v>2</v>
@@ -53260,7 +53260,7 @@
     </row>
     <row r="2993" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2993" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2993">
         <v>168</v>
@@ -53464,7 +53464,7 @@
     </row>
     <row r="3005" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3005" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3005">
         <v>4</v>
@@ -53634,7 +53634,7 @@
     </row>
     <row r="3015" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3015" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3015">
         <v>1</v>
@@ -54658,7 +54658,7 @@
     </row>
     <row r="3074" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3074" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3074">
         <v>6</v>
@@ -55021,7 +55021,7 @@
     </row>
     <row r="3095" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3095" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3095">
         <v>1</v>
@@ -55617,7 +55617,7 @@
     </row>
     <row r="3129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3129">
         <v>3</v>
@@ -56068,7 +56068,7 @@
     </row>
     <row r="3155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3155" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3155">
         <v>15</v>
@@ -56295,7 +56295,7 @@
     </row>
     <row r="3168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3168" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B3168">
         <v>27</v>
@@ -56641,7 +56641,7 @@
     </row>
     <row r="3188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3188" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3188">
         <v>2</v>
@@ -57424,7 +57424,7 @@
     </row>
     <row r="3233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3233" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3233">
         <v>13</v>
@@ -58051,7 +58051,7 @@
     </row>
     <row r="3269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3269" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3269">
         <v>2</v>
@@ -59673,7 +59673,7 @@
     </row>
     <row r="3363" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3363" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3363">
         <v>252</v>
@@ -59741,7 +59741,7 @@
     </row>
     <row r="3367" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3367" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3367">
         <v>13</v>
@@ -59758,7 +59758,7 @@
     </row>
     <row r="3368" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3368" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B3368">
         <v>31</v>
@@ -61638,7 +61638,7 @@
     </row>
     <row r="3477" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3477" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3477">
         <v>300</v>
@@ -61689,7 +61689,7 @@
     </row>
     <row r="3480" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3480" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3480">
         <v>52</v>
@@ -62650,7 +62650,7 @@
     </row>
     <row r="3536" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3536" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3536">
         <v>3</v>
@@ -63597,7 +63597,7 @@
     </row>
     <row r="3591" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3591" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3591">
         <v>2</v>
@@ -63821,7 +63821,7 @@
     </row>
     <row r="3604" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3604" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3604">
         <v>3</v>
@@ -65208,7 +65208,7 @@
     </row>
     <row r="3684" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3684" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3684">
         <v>32</v>
@@ -65361,7 +65361,7 @@
     </row>
     <row r="3693" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3693" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B3693">
         <v>22</v>
@@ -65908,7 +65908,7 @@
     </row>
     <row r="3725" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3725" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3725">
         <v>58</v>
@@ -66044,7 +66044,7 @@
     </row>
     <row r="3733" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3733" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B3733">
         <v>63</v>
@@ -66282,7 +66282,7 @@
     </row>
     <row r="3747" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3747" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3747">
         <v>1</v>
@@ -66367,7 +66367,7 @@
     </row>
     <row r="3752" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3752" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3752">
         <v>15</v>
@@ -66883,7 +66883,7 @@
     </row>
     <row r="3782" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3782" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B3782">
         <v>6</v>
@@ -68111,7 +68111,7 @@
     </row>
     <row r="3853" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3853" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3853">
         <v>1</v>
@@ -71046,7 +71046,7 @@
     </row>
     <row r="4023" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4023" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4023">
         <v>50</v>
@@ -71647,7 +71647,7 @@
     </row>
     <row r="4058" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4058" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B4058">
         <v>4</v>
@@ -72977,7 +72977,7 @@
     </row>
     <row r="4135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4135" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B4135">
         <v>9</v>
@@ -73451,7 +73451,7 @@
     </row>
     <row r="4162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4162" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4162">
         <v>1</v>
@@ -74364,7 +74364,7 @@
     </row>
     <row r="4215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4215" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4215">
         <v>8</v>
@@ -74764,7 +74764,7 @@
     </row>
     <row r="4238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4238" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4238">
         <v>2</v>
@@ -75952,7 +75952,7 @@
     </row>
     <row r="4307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4307" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4307">
         <v>3</v>
@@ -76071,7 +76071,7 @@
     </row>
     <row r="4314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4314" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4314">
         <v>23</v>
@@ -76275,7 +76275,7 @@
     </row>
     <row r="4326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4326" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4326">
         <v>179</v>
@@ -76292,7 +76292,7 @@
     </row>
     <row r="4327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4327" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4327">
         <v>11</v>
@@ -77083,7 +77083,7 @@
     </row>
     <row r="4373" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4373" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B4373">
         <v>9</v>
@@ -77562,7 +77562,7 @@
     </row>
     <row r="4401" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4401" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4401">
         <v>5</v>
@@ -77718,7 +77718,7 @@
     </row>
     <row r="4410" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4410" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4410">
         <v>170</v>
@@ -78699,7 +78699,7 @@
     </row>
     <row r="4467" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4467" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4467">
         <v>25</v>
@@ -79102,7 +79102,7 @@
     </row>
     <row r="4490" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4490" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4490">
         <v>90</v>
@@ -79649,7 +79649,7 @@
     </row>
     <row r="4522" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4522" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4522">
         <v>5</v>
@@ -79876,7 +79876,7 @@
     </row>
     <row r="4535" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4535" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4535">
         <v>69</v>
@@ -80171,7 +80171,7 @@
     </row>
     <row r="4552" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4552" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4552">
         <v>1</v>
@@ -80290,7 +80290,7 @@
     </row>
     <row r="4559" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4559" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4559">
         <v>20</v>
@@ -81033,7 +81033,7 @@
     </row>
     <row r="4602" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4602" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4602">
         <v>2</v>
@@ -81121,7 +81121,7 @@
     </row>
     <row r="4607" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4607" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4607">
         <v>24</v>
@@ -81257,7 +81257,7 @@
     </row>
     <row r="4615" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4615" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B4615">
         <v>76</v>
@@ -82473,7 +82473,7 @@
     </row>
     <row r="4686" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4686" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4686">
         <v>9</v>
@@ -82907,7 +82907,7 @@
     </row>
     <row r="4711" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4711" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4711">
         <v>38</v>
@@ -83060,7 +83060,7 @@
     </row>
     <row r="4720" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4720" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4720">
         <v>642</v>
@@ -83383,7 +83383,7 @@
     </row>
     <row r="4739" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4739" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="B4739">
         <v>77</v>
@@ -84869,7 +84869,7 @@
     </row>
     <row r="4825" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4825" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4825">
         <v>161</v>
@@ -85004,6 +85004,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F4832" xr:uid="{E00FA465-A2F7-4E8F-AC67-DC6EE5356347}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
